--- a/Ex3_Nipuna_H_Herath_A1776057.xlsx
+++ b/Ex3_Nipuna_H_Herath_A1776057.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kr4ckhe4d/Desktop/Uni Adelaide/Semester 2/Secure Software Engineering/Exercises/Exercise 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5238273D-6E47-1F4A-A532-18610A190531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A150D3-82F6-764F-A402-954B044281B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,15 +39,71 @@
           <rPr>
             <b/>
             <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Question 3.a</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yes if there is a mention of the word "fix", "patch" of a bug or vulnerability in the commit message, else No. (Question 6.a)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Question 6.b</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Question 3.a</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+          <t>Question 6.c</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Question 6.d</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -57,62 +113,6 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Yes if there is a mention of the word "fix", "patch" of a bug or vulnerability in the commit message, else No. (Question 6.a)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Question 6.b</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Question 6.c</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Question 6.d</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
           <t>Question 6.e.</t>
         </r>
       </text>
@@ -123,7 +123,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Student name</t>
   </si>
@@ -357,6 +357,18 @@
   </si>
   <si>
     <t>The message does not mention about the fix</t>
+  </si>
+  <si>
+    <t>60d459ce</t>
+  </si>
+  <si>
+    <t>0bdf77af</t>
+  </si>
+  <si>
+    <t>0c543aef</t>
+  </si>
+  <si>
+    <t>38.5 days</t>
   </si>
 </sst>
 </file>
@@ -746,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -856,6 +868,9 @@
       <c r="F2" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="H2" s="1" t="s">
         <v>35</v>
       </c>
@@ -864,6 +879,39 @@
       </c>
       <c r="J2" s="1">
         <v>3</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>65</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>47</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>264</v>
+      </c>
+      <c r="R2" s="1">
+        <v>3</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>3579</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="124" customHeight="1" x14ac:dyDescent="0.2">
@@ -885,6 +933,9 @@
       <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="H3" s="1" t="s">
         <v>36</v>
       </c>
@@ -892,6 +943,39 @@
         <v>39</v>
       </c>
       <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>8</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>8</v>
+      </c>
+      <c r="P3" s="1">
+        <v>659</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>53</v>
+      </c>
+      <c r="R3" s="1">
+        <v>9</v>
+      </c>
+      <c r="S3" s="1">
+        <v>9</v>
+      </c>
+      <c r="T3" s="1">
+        <v>2528</v>
+      </c>
+      <c r="U3" s="1">
         <v>1</v>
       </c>
     </row>
@@ -914,6 +998,9 @@
       <c r="F4" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="H4" s="1" t="s">
         <v>37</v>
       </c>
@@ -921,7 +1008,40 @@
         <v>40</v>
       </c>
       <c r="J4" s="1">
-        <v>4</v>
+        <v>686</v>
+      </c>
+      <c r="K4" s="1">
+        <v>74</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>72963</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>37887</v>
+      </c>
+      <c r="P4" s="1">
+        <v>677</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>2211</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
